--- a/xlsx/巴士_intext.xlsx
+++ b/xlsx/巴士_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="293">
   <si>
     <t>巴士</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
   </si>
   <si>
-    <t>倫敦</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_巴士</t>
+    <t>伦敦</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%B1%A4%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>雙層巴士</t>
+    <t>双层巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Routemaster</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E4%B8%B9%E5%B0%BC%E5%A3%AB</t>
   </si>
   <si>
-    <t>亞歷山大丹尼士</t>
+    <t>亚历山大丹尼士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Enviro_500</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>大眾運輸</t>
+    <t>大众运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E4%BA%BA</t>
@@ -107,19 +107,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E4%BA%BA</t>
   </si>
   <si>
-    <t>台灣人</t>
+    <t>台湾人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
@@ -155,19 +155,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E4%B8%81%E9%A0%93</t>
   </si>
   <si>
-    <t>帕丁頓</t>
+    <t>帕丁顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82</t>
@@ -185,13 +185,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E8%BB%8C%E9%9B%BB%E8%BB%8A</t>
   </si>
   <si>
-    <t>無軌電車</t>
+    <t>无轨电车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%95%E6%93%8E</t>
@@ -233,19 +233,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E7%B8%AE%E5%A4%A9%E7%84%B6%E6%B0%A3</t>
   </si>
   <si>
-    <t>壓縮天然氣</t>
+    <t>压缩天然气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%94%E9%9B%BB%E5%8B%95%E8%BB%8A</t>
   </si>
   <si>
-    <t>純電動車</t>
+    <t>纯电动车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E5%B1%A4%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>單層巴士</t>
+    <t>单层巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E8%B2%B7</t>
   </si>
   <si>
-    <t>孟買</t>
+    <t>孟买</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9F%8F%E6%9E%97</t>
@@ -269,33 +269,30 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%A8%99</t>
   </si>
   <si>
-    <t>地標</t>
+    <t>地标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%92%B0</t>
   </si>
   <si>
-    <t>中環</t>
+    <t>中环</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%83%BD%E6%9C%83%E5%AE%A2%E9%81%8B</t>
   </si>
   <si>
-    <t>大都會客運</t>
+    <t>大都会客运</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
   </si>
   <si>
-    <t>中国大陆</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
   </si>
   <si>
@@ -305,25 +302,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E8%BB%8A</t>
   </si>
   <si>
-    <t>列車</t>
+    <t>列车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8A%E5%8D%A1</t>
   </si>
   <si>
-    <t>車卡</t>
+    <t>车卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%93%E6%A2%AF</t>
   </si>
   <si>
-    <t>樓梯</t>
+    <t>楼梯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC</t>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%B1%AA%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>富豪集團</t>
+    <t>富豪集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%9C%B0%E5%8F%B0%E5%B7%B4%E5%A3%AB</t>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%AA%E6%A4%85</t>
   </si>
   <si>
-    <t>輪椅</t>
+    <t>轮椅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E4%BA%BA</t>
@@ -383,7 +380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>香港國際機場</t>
+    <t>香港国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1FUSO</t>
@@ -395,19 +392,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E5%A3%AB%E9%95%B7%E7%9F%9B</t>
   </si>
   <si>
-    <t>丹尼士長矛</t>
+    <t>丹尼士长矛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E4%B8%B9%E5%B0%BC%E5%A3%ABEnviro_200_Dart</t>
   </si>
   <si>
-    <t>亞歷山大丹尼士Enviro 200 Dart</t>
+    <t>亚历山大丹尼士Enviro 200 Dart</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E4%B8%B9%E5%B0%BC%E5%A3%ABEnviro_300</t>
   </si>
   <si>
-    <t>亞歷山大丹尼士Enviro 300</t>
+    <t>亚历山大丹尼士Enviro 300</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%B1%AAB10BLE</t>
@@ -419,13 +416,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%BE%8D%E5%AE%A2%E8%BB%8A</t>
   </si>
   <si>
-    <t>金龍客車</t>
+    <t>金龙客车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%A5%A5%E6%99%AE%E5%85%B0</t>
@@ -443,13 +440,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>中華巴士</t>
+    <t>中华巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E5%A3%AB%E9%A3%9B%E9%8F%A2%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>丹尼士飛鏢巴士</t>
+    <t>丹尼士飞镖巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%B1%AAB6%E5%9E%8B%E5%B7%B4%E5%A3%AB</t>
@@ -473,7 +470,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%B0%8F%E5%B7%B4</t>
@@ -491,7 +488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%9B%E7%8D%85</t>
   </si>
   <si>
-    <t>猛獅</t>
+    <t>猛狮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E5%B7%A5%E5%85%B7</t>
@@ -503,7 +500,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E9%81%8B%E8%BC%B8%E7%BD%B2</t>
   </si>
   <si>
-    <t>香港運輸署</t>
+    <t>香港运输署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%92%8F%E8%B7%AF%E5%B8%82</t>
@@ -521,13 +518,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8E%E5%90%91%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>導向巴士</t>
+    <t>导向巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%94%9F</t>
   </si>
   <si>
-    <t>學生</t>
+    <t>学生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E6%A0%A1</t>
@@ -539,25 +536,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E7%B4%84</t>
   </si>
   <si>
-    <t>合約</t>
+    <t>合约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E8%A6%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>遊覽車</t>
+    <t>游览车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E8%BB%8A%E5%B0%88%E7%94%A8%E9%81%93</t>
   </si>
   <si>
-    <t>公車專用道</t>
+    <t>公车专用道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E9%93%81</t>
@@ -575,15 +572,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8C%E9%81%93%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>軌道交通</t>
+    <t>轨道交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%AD%E5%B7%9E</t>
   </si>
   <si>
@@ -635,13 +629,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E9%AB%98%E9%90%B5</t>
   </si>
   <si>
-    <t>台灣高鐵</t>
+    <t>台湾高铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%90%B5%E5%98%89%E7%BE%A9%E7%AB%99</t>
   </si>
   <si>
-    <t>高鐵嘉義站</t>
+    <t>高铁嘉义站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%98%89%E4%B9%89%E5%8E%BF</t>
@@ -653,13 +647,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%98%89%E7%BE%A9%E5%85%AC%E8%BB%8A%E6%8D%B7%E9%81%8B</t>
   </si>
   <si>
-    <t>嘉義公車捷運</t>
+    <t>嘉义公车捷运</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%98%89%E7%BE%A9%E5%B8%82</t>
   </si>
   <si>
-    <t>嘉義市</t>
+    <t>嘉义市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%B8%82</t>
@@ -671,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%B9%B4%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>青年汽車</t>
+    <t>青年汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B4%A5</t>
@@ -689,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E7%87%88</t>
   </si>
   <si>
-    <t>交通燈</t>
+    <t>交通灯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Optare</t>
@@ -701,13 +695,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E8%93%AC%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>開蓬巴士</t>
+    <t>开蓬巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%9A%9B%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>城際巴士</t>
+    <t>城际巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%B0%E6%8E%A5%E5%AE%A2%E8%BD%A6</t>
@@ -719,9 +713,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E8%BD%A8%E7%94%B5%E8%BD%A6</t>
   </si>
   <si>
-    <t>无轨电车</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%9E%8B%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
@@ -737,7 +728,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E5%85%88%E5%BA%A7</t>
   </si>
   <si>
-    <t>優先座</t>
+    <t>优先座</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%B7%B4%E5%A3%AB%E4%B8%8E%E5%AE%A2%E8%BD%A6</t>
@@ -755,25 +746,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%B1%BD%E8%BB%8A%E5%AE%A2%E9%81%8B</t>
   </si>
   <si>
-    <t>臺灣汽車客運</t>
+    <t>台湾汽车客运</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%B1%BD%E8%BB%8A%E5%AE%A2%E9%81%8B%E6%A5%AD%E8%80%85%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>中華民國汽車客運業者列表</t>
+    <t>中华民国汽车客运业者列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%B1%BD%E8%BB%8A%E5%AE%A2%E9%81%8B%E8%BB%8A%E7%AB%99%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>中華民國汽車客運車站列表</t>
+    <t>中华民国汽车客运车站列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%AE%A2%E9%81%8B%E8%B7%AF%E7%B7%9A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>臺灣客運路線列表</t>
+    <t>台湾客运路线列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A3%AB%E8%BF%B7</t>
@@ -809,31 +800,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E7%AF%80%E5%85%AC%E8%BB%8A</t>
   </si>
   <si>
-    <t>雙節公車</t>
+    <t>双节公车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E8%AA%BF%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>空調巴士</t>
+    <t>空调巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E8%A6%BD%E8%BB%8A%E5%9E%8B%E5%B8%82%E5%8D%80%E5%85%AC%E8%BB%8A</t>
   </si>
   <si>
-    <t>遊覽車型市區公車</t>
+    <t>游览车型市区公车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A3%AB%E5%BB%A3%E5%91%8A</t>
   </si>
   <si>
-    <t>巴士廣告</t>
+    <t>巴士广告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%94%9F%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>學生巴士</t>
+    <t>学生巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%B1%BD%E8%BD%A6</t>
@@ -845,7 +836,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%93%E7%B7%B4%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>訓練巴士</t>
+    <t>训练巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E5%AE%B5%E5%B7%B4%E5%A3%AB</t>
@@ -857,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A5%E9%A7%81%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>接駁巴士</t>
+    <t>接驳巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BF%E6%A2%AD%E5%B7%B4%E5%A3%AB</t>
@@ -881,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8B%95%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>電動巴士</t>
+    <t>电动巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BD%E4%BD%93%E9%AB%98%E6%9E%B6%E7%94%B5%E8%BD%A6</t>
@@ -893,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>公共運輸</t>
+    <t>公共运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%B1%BD%E8%BB%8A</t>
@@ -2607,7 +2598,7 @@
         <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="G47" t="n">
         <v>4</v>
@@ -2633,10 +2624,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>6</v>
@@ -2662,10 +2653,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2691,10 +2682,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2720,10 +2711,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2749,10 +2740,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
@@ -2778,10 +2769,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>4</v>
@@ -2807,10 +2798,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>4</v>
@@ -2836,10 +2827,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -2865,10 +2856,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -2894,10 +2885,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -2923,10 +2914,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>9</v>
@@ -2952,10 +2943,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
@@ -2981,10 +2972,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>6</v>
@@ -3010,10 +3001,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3039,10 +3030,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3068,10 +3059,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3097,10 +3088,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3126,10 +3117,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3155,10 +3146,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3184,10 +3175,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3213,10 +3204,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3242,10 +3233,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3271,10 +3262,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3300,10 +3291,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>8</v>
@@ -3329,10 +3320,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3358,10 +3349,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3387,10 +3378,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3416,10 +3407,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -3445,10 +3436,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3474,10 +3465,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>4</v>
@@ -3503,10 +3494,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3532,10 +3523,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>106</v>
+      </c>
+      <c r="F79" t="s">
         <v>107</v>
-      </c>
-      <c r="F79" t="s">
-        <v>108</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -3561,10 +3552,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3590,10 +3581,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3619,10 +3610,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -3648,10 +3639,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3677,10 +3668,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3706,10 +3697,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3735,10 +3726,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3764,10 +3755,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3793,10 +3784,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3822,10 +3813,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3851,10 +3842,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>5</v>
@@ -3880,10 +3871,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3909,10 +3900,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>20</v>
@@ -3938,10 +3929,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3967,10 +3958,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3996,10 +3987,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4025,10 +4016,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="G96" t="n">
         <v>11</v>
@@ -4054,10 +4045,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4083,10 +4074,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4112,10 +4103,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4141,10 +4132,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4170,10 +4161,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4199,10 +4190,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4228,10 +4219,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4257,10 +4248,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4286,10 +4277,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4315,10 +4306,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4344,10 +4335,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>4</v>
@@ -4373,10 +4364,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4402,10 +4393,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4431,10 +4422,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4460,10 +4451,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4489,10 +4480,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4518,10 +4509,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4547,10 +4538,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4576,10 +4567,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4605,10 +4596,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4634,10 +4625,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4663,10 +4654,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4692,10 +4683,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>6</v>
@@ -4721,10 +4712,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>58</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -4750,10 +4741,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
@@ -4779,10 +4770,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G122" t="n">
         <v>4</v>
@@ -4808,10 +4799,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4837,10 +4828,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4866,10 +4857,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4895,10 +4886,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4924,10 +4915,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4953,10 +4944,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4982,10 +4973,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5011,10 +5002,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5040,10 +5031,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5069,10 +5060,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
@@ -5098,10 +5089,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G133" t="n">
         <v>3</v>
@@ -5127,10 +5118,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G134" t="n">
         <v>53</v>
@@ -5156,10 +5147,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5185,10 +5176,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>104</v>
+      </c>
+      <c r="F136" t="s">
         <v>105</v>
-      </c>
-      <c r="F136" t="s">
-        <v>106</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5243,10 +5234,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>108</v>
+      </c>
+      <c r="F138" t="s">
         <v>109</v>
-      </c>
-      <c r="F138" t="s">
-        <v>110</v>
       </c>
       <c r="G138" t="n">
         <v>26</v>
@@ -5272,10 +5263,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F139" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5301,10 +5292,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>166</v>
+      </c>
+      <c r="F140" t="s">
         <v>167</v>
-      </c>
-      <c r="F140" t="s">
-        <v>168</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5330,10 +5321,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F141" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5359,10 +5350,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F142" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5388,10 +5379,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F143" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G143" t="n">
         <v>4</v>
@@ -5417,10 +5408,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F144" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5446,10 +5437,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F145" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G145" t="n">
         <v>6</v>
@@ -5475,10 +5466,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F146" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G146" t="n">
         <v>4</v>
@@ -5504,10 +5495,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F147" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5533,10 +5524,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F148" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5562,10 +5553,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F149" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5591,10 +5582,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F150" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5620,10 +5611,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F151" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5649,10 +5640,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F152" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5678,10 +5669,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F153" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5707,10 +5698,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F154" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5736,10 +5727,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F155" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5765,10 +5756,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F156" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5794,10 +5785,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F157" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5823,10 +5814,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F158" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G158" t="n">
         <v>4</v>
@@ -5852,10 +5843,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F159" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
